--- a/biology/Zoologie/L'Année_du_requin/L'Année_du_requin.xlsx
+++ b/biology/Zoologie/L'Année_du_requin/L'Année_du_requin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Ann%C3%A9e_du_requin</t>
+          <t>L'Année_du_requin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Année du requin est un film français réalisé par Zoran et Ludovic Boukherma et sorti en 2022.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Ann%C3%A9e_du_requin</t>
+          <t>L'Année_du_requin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation générale
-À La Pointe, au Cap Ferret, dans le Sud-Ouest de la France, un promeneur en paddle disparaît. Très vite, il est découvert qu'un requin géant menace les habitants et les vacanciers de la côte. Maja, gendarme[Note 1] bientôt à la retraite, voit cela comme l'occasion de finir sa carrière en beauté. Elle va pouvoir compter sur l'aide de deux jeunes collègues, Eugénie et Blaise, pour l'épauler dans cette mission.
-Synopsis détaillé
-À La Pointe, au Cap Ferret, une petite station balnéaire tranquille du Sud-Ouest de la France, un homme se fait dévorer par un animal non identifié alors qu'il faisait du paddle en solitaire. 
+          <t>Présentation générale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À La Pointe, au Cap Ferret, dans le Sud-Ouest de la France, un promeneur en paddle disparaît. Très vite, il est découvert qu'un requin géant menace les habitants et les vacanciers de la côte. Maja, gendarme[Note 1] bientôt à la retraite, voit cela comme l'occasion de finir sa carrière en beauté. Elle va pouvoir compter sur l'aide de deux jeunes collègues, Eugénie et Blaise, pour l'épauler dans cette mission.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>L'Année_du_requin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synopsis détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À La Pointe, au Cap Ferret, une petite station balnéaire tranquille du Sud-Ouest de la France, un homme se fait dévorer par un animal non identifié alors qu'il faisait du paddle en solitaire. 
 Au même moment, Maja, une gendarme, aide deux touristes qui disent que leur embarcation a été percutée par quelque chose. Sur le point de repartir au port, quelque chose touche violemment son bateau. Cette dernière en parle à son supérieur qui met cela sur le compte de son départ à la retraite que Maja doit prendre malgré son envie de continuer son métier. Son mari, Thierry, qui l'a toujours encouragée, n'attend que ce moment pour qu'ils puissent enfin être tranquilles tous les deux. 
 Le lendemain, Maja se rend au camping pour demander à voir le bateau des touristes. Elle y trouve une marque sur la coque ressemblant à une morsure et constate que celle de son bateau est identique. Elle en déduit qu'elles sont l'oeuvre d'un requin. Ses collègues, Blaise et Eugénie, la charrient ainsi que l'ensemble du commissariat car aucun requin dangereux n'a jamais été répertorié dans cette partie de la France. À la suite de cela, Maja, Blaise et Eugénie sont appelés aux structures gonflables situées sur l'eau. Le gérant pense que des touristes se sont amusés à dégrader les installations mais Maja trouve une jambe à la place, celle de l'homme disparu en paddle. 
 Le légiste confirme qu'un requin est bien responsable et explique à Maja qu'à cause du réchauffement climatique, certaines espèces jamais observées dans le nord du Globe, comme certaines sardines, remontent vers le Nord. Il est donc probable qu'un requin ait pu faire de même. Malgré le refus des commerçants et des vacanciers, décision est prise de fermer la plage, le temps d'attraper la bête. Maja demande à son chef de lui confier l'enquête, en lui promettant qu'il s'agit de sa dernière mission ce qu'il consent à lui accorder. Alors que Maja et ses collègues plantent des pancartes pour interdire la baignade, un homme fait des longueurs et finit par sortir de l'eau à contrecœur. Maja prévient son mari que son départ à la retraite est reporté et se met à la recherche du squale avec Blaise et Eugénie. Les gendarmes l'appâtent et après avoir récupéré Blaise qui avait été jeté à l'eau par le requin, le monstre est maîtrisé par Maja grâce à une seringue hypodermique. Le requin est ensuite enfermé dans un enclôs pour pouvoir être ramené dans son habitat naturel. Maja obtient la reconnaissance de ses pairs, est félicitée par les habitants et prend sa retraite. 
@@ -527,31 +579,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>L%27Ann%C3%A9e_du_requin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Année_du_requin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : L'Année du requin
@@ -578,31 +632,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%27Ann%C3%A9e_du_requin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Année_du_requin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données Allociné.
 Marina Foïs : Maja
@@ -617,46 +673,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Ann%C3%A9e_du_requin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après les films de loup-garou avec Teddy (2020), les frères Ludovic et Zoran Boukherma ont ici voulu s'attaquer à un autre « film de genre ». Zoran Boukherma explique : « C’est un fantasme de cinéma. Quand tu as vu Les Dents de la mer de Spielberg, tu n’oublies jamais l’effet que fait le film. Il n’y a pas vraiment de films dans le même genre. Souvent, le film de requin, ça devient vite parodique. Là, on avait vraiment envie de revenir à l’essence du genre : c’est-à-dire filmer avant tout une menace dans un décor qui normalement ne s’y prête pas, la plage. Le requin, c’est le monstre de l’été, celui qui vient gâcher la fête. Pour nous, là, il y a matière à « cinéma », il y a quelque chose à filmer et à raconter[1]. »
-Tournage
-Le tournage a lieu de juin à septembre 2021 dans les Landes[2], notamment à Biscarrosse, ainsi qu'à Arcachon en Gironde[3],[4],[5]. Pour la créature, l'équipe utilise un requin en animatronique plutôt que des effets spéciaux numériques[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Ann%C3%A9e_du_requin</t>
+          <t>L'Année_du_requin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,18 +694,128 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après les films de loup-garou avec Teddy (2020), les frères Ludovic et Zoran Boukherma ont ici voulu s'attaquer à un autre « film de genre ». Zoran Boukherma explique : « C’est un fantasme de cinéma. Quand tu as vu Les Dents de la mer de Spielberg, tu n’oublies jamais l’effet que fait le film. Il n’y a pas vraiment de films dans le même genre. Souvent, le film de requin, ça devient vite parodique. Là, on avait vraiment envie de revenir à l’essence du genre : c’est-à-dire filmer avant tout une menace dans un décor qui normalement ne s’y prête pas, la plage. Le requin, c’est le monstre de l’été, celui qui vient gâcher la fête. Pour nous, là, il y a matière à « cinéma », il y a quelque chose à filmer et à raconter. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Année_du_requin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu de juin à septembre 2021 dans les Landes, notamment à Biscarrosse, ainsi qu'à Arcachon en Gironde. Pour la créature, l'équipe utilise un requin en animatronique plutôt que des effets spéciaux numériques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Année_du_requin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné propose une moyenne de 2,8/5, à partir de l'interprétation de 25 critiques de presse[6].
-Pour le site Écran Large, le rendu final est moyen, comme le confirme la note attribuée. Leur résumé est le suivant : « Hybride foutraque qui doit tout à la passion de ses auteurs, mais ne sait pas sur quel aileron nager, ce film de requin made in France est assurément le divertissement le plus bizarroïde de l'été. Pour le meilleur ou pour le pire, à vous de juger ! »[7].
-Cette critique révèle l'avis partagé des critiques de presse sur le film. Dans les critiques les plus positives, on peut citer celle du site Cinema Teaser : « Les tropes du cinéma américain (...) donnent une structure solide – bien que mécanique – au film qui dans un premier temps se satisfait de son humour potache et de ses spécificités locales puis, soudain, se durcit : l’irruption du réel (...) accompagnée d’une stylisation de l’image vient donner à L’ANNÉE DU REQUIN à la fois une pertinence sociale sévère et une dimension spectaculaire (même si un peu lo-fi) à ce qu’on pouvait un peu trop rapidement avoir catalogué comme une comédie potache. »[8].
-« Entre « pur » film de monstre et farce délirante, L'Année du requin, malgré ses répétitions et ses temps morts, a l'incontestable mérite de privilégier un ton résolument absurde et de prohiber l'esprit de sérieux. », dixit la critique des Echos[9]. Plus incisif, L'Obs estime de son côté que qu'il s'agit là d'une « satire de la beauferie anti-woke, ode aux humiliés, victimes de la connerie ambiante, leur film ne manque pas d’idées, mais pour un court-métrage. »[10]. Pour Première, « les cinéastes se retrouvent pris au piège et ne savent plus très bien où mettre les pieds, entre parodie, respect du genre et drame psychologique. A tout prendre, tout s’annule. »[11].
-Box-office
-Le jour de sa sortie, en France, le long-métrage de comédie engrange 17 779 entrées, dont 4 222 en avant-première, pour 482 copies. Le film se place en seconde position du box-office des nouveautés du jour, derrière Bullet Train (106 026) et devant En décalage (916)[12]. La comédie des frères Boukherma semble peiner à trouver son public au bout d'une première semaine d'exploitation en ne réunissant que 72 629 entrées pour une entrées au box-office à la 8e place, derrière la comédie Menteur (109 332) et devant le thriller policier La Nuit du 12 (54 557)[13].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné propose une moyenne de 2,8/5, à partir de l'interprétation de 25 critiques de presse.
+Pour le site Écran Large, le rendu final est moyen, comme le confirme la note attribuée. Leur résumé est le suivant : « Hybride foutraque qui doit tout à la passion de ses auteurs, mais ne sait pas sur quel aileron nager, ce film de requin made in France est assurément le divertissement le plus bizarroïde de l'été. Pour le meilleur ou pour le pire, à vous de juger ! ».
+Cette critique révèle l'avis partagé des critiques de presse sur le film. Dans les critiques les plus positives, on peut citer celle du site Cinema Teaser : « Les tropes du cinéma américain (...) donnent une structure solide – bien que mécanique – au film qui dans un premier temps se satisfait de son humour potache et de ses spécificités locales puis, soudain, se durcit : l’irruption du réel (...) accompagnée d’une stylisation de l’image vient donner à L’ANNÉE DU REQUIN à la fois une pertinence sociale sévère et une dimension spectaculaire (même si un peu lo-fi) à ce qu’on pouvait un peu trop rapidement avoir catalogué comme une comédie potache. ».
+« Entre « pur » film de monstre et farce délirante, L'Année du requin, malgré ses répétitions et ses temps morts, a l'incontestable mérite de privilégier un ton résolument absurde et de prohiber l'esprit de sérieux. », dixit la critique des Echos. Plus incisif, L'Obs estime de son côté que qu'il s'agit là d'une « satire de la beauferie anti-woke, ode aux humiliés, victimes de la connerie ambiante, leur film ne manque pas d’idées, mais pour un court-métrage. ». Pour Première, « les cinéastes se retrouvent pris au piège et ne savent plus très bien où mettre les pieds, entre parodie, respect du genre et drame psychologique. A tout prendre, tout s’annule. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L'Année_du_requin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Ann%C3%A9e_du_requin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jour de sa sortie, en France, le long-métrage de comédie engrange 17 779 entrées, dont 4 222 en avant-première, pour 482 copies. Le film se place en seconde position du box-office des nouveautés du jour, derrière Bullet Train (106 026) et devant En décalage (916). La comédie des frères Boukherma semble peiner à trouver son public au bout d'une première semaine d'exploitation en ne réunissant que 72 629 entrées pour une entrées au box-office à la 8e place, derrière la comédie Menteur (109 332) et devant le thriller policier La Nuit du 12 (54 557).
 </t>
         </is>
       </c>
